--- a/biology/Microbiologie/Bryophryidae/Bryophryidae.xlsx
+++ b/biology/Microbiologie/Bryophryidae/Bryophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bryophryida
 Les Bryophryidae, uniques représentants de l’ordre des Bryophryida, sont une famille de Ciliés de la classe des Colpodea.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Bryophrya, dérivé du grec βρυόεις / bryóeis, mousse, et φρυά /  fryá, frémissement (de φρυάσσω / fryásso, « hennir pour s'élancer vers quelque chose »), en référence à la fois à l'appétit de cet organisme pour les mousses de Cyanobacteries (algues bleues) du genre Nostoc et à sa forme qui ressemble à ladite algue[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Bryophrya, dérivé du grec βρυόεις / bryóeis, mousse, et φρυά /  fryá, frémissement (de φρυάσσω / fryásso, « hennir pour s'élancer vers quelque chose »), en référence à la fois à l'appétit de cet organisme pour les mousses de Cyanobacteries (algues bleues) du genre Nostoc et à sa forme qui ressemble à ladite algue. 
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Kahl, en 1943, décrit ainsi le genre Bryophrya : 
 « 1. Genre Bryophrya Kahl.
-(Organisme en) forme de mousse ovale de couleur jaunâtre à rouge vif, la couleur provient des algues Nostoc que probablement il consomme exclusivement[1]. »
+(Organisme en) forme de mousse ovale de couleur jaunâtre à rouge vif, la couleur provient des algues Nostoc que probablement il consomme exclusivement. »
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A. Kahl a récolté l'espèce Bryophrya bavariensis « uniquement dans les mousses des Alpes calcaires »[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. Kahl a récolté l'espèce Bryophrya bavariensis « uniquement dans les mousses des Alpes calcaires ».
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (31 octobre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (31 octobre 2022) :
 Bryophrya Wenzel, 1953
 Bryophryoides Bourland, Wendell, Hampikian &amp; Vdacný, 2014
 Notoxoma Foissner, 1993
@@ -643,9 +663,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de la famille est Bryophryidae de Puytorac et al., 1979, celui de l'ordre Bryophryida de Puytorac et al., 1979[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de la famille est Bryophryidae de Puytorac et al., 1979, celui de l'ordre Bryophryida de Puytorac et al., 1979.
 </t>
         </is>
       </c>
